--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schhen\Desktop\NGF_docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97E2BBE-1F38-4E2C-94E4-B45D9C63FE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96043734-BF0D-4869-A2B3-AB84930E1361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4BFB2388-5AB2-45E5-909C-112607BF2BA9}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4BFB2388-5AB2-45E5-909C-112607BF2BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>abstract</t>
   </si>
@@ -56,31 +56,15 @@
     <t>dataset</t>
   </si>
   <si>
-    <t>Railways</t>
-  </si>
-  <si>
     <t>Embassies</t>
   </si>
   <si>
     <t>RegulatedWaters</t>
   </si>
   <si>
-    <t>National railway infrastructure including tracks, stations, tunnels, and bridges.</t>
-  </si>
-  <si>
-    <t>Banenor
-Norwegian Mapping Authority</t>
-  </si>
-  <si>
-    <t>As needed</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Embassy and consulate locations, relevant for diplomacy, travel assistance, and international relations.</t>
   </si>
   <si>
@@ -100,6 +84,15 @@
   </si>
   <si>
     <t>Annual</t>
+  </si>
+  <si>
+    <t>Daycares</t>
+  </si>
+  <si>
+    <t>All registered kindergartens in Norway, including public and private providers.</t>
+  </si>
+  <si>
+    <t>The Norwegian Directorate For Education And Training</t>
   </si>
 </sst>
 </file>
@@ -492,7 +485,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,64 +518,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
